--- a/xlsx/country_comparison/conjoint_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_positive.xlsx
@@ -32,31 +32,31 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;C+R+G&lt;&lt; vs. C+R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: C+R vs. &gt;&gt;G+R&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: R vs. &gt;&gt;R+C+G&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;R+G&lt;&lt; vs. R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;R+C&lt;&lt; vs. R</t>
+    <t xml:space="preserve">Conjoint: &gt;&gt;C+NR+GCS&lt;&lt; vs. C+NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjoint: C+NR vs. &gt;&gt;GCS+NR&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjoint: NR vs. &gt;&gt;NR+C+GCS&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjoint: &gt;&gt;NR+GCS&lt;&lt; vs. NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjoint: &gt;&gt;NR+C&lt;&lt; vs. NR</t>
   </si>
   <si>
     <t xml:space="preserve">Conjoint: &gt;&gt;Left&lt;&lt; vs. Right</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left+G&lt;&lt; vs. Right</t>
+    <t xml:space="preserve">Conjoint: &gt;&gt;Left+GCS&lt;&lt; vs. Right</t>
   </si>
   <si>
     <t xml:space="preserve">Conjoint: random programs &gt;&gt;A&lt;&lt; vs. B</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A+G&lt;&lt; vs. B</t>
+    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A+GCS&lt;&lt; vs. B</t>
   </si>
 </sst>
 </file>
@@ -413,19 +413,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.641791044776119</v>
+        <v>0.802816901408451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.774193548387097</v>
+        <v>0.718232044198895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.724137931034483</v>
+        <v>0.778688524590164</v>
       </c>
       <c r="E2" t="n">
-        <v>0.676470588235294</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="F2" t="n">
-        <v>0.534883720930233</v>
+        <v>0.540890072270825</v>
       </c>
     </row>
     <row r="3">
@@ -433,19 +433,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.538461538461538</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.444444444444444</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="D3" t="n">
-        <v>0.555555555555556</v>
+        <v>0.65625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="F3" t="n">
-        <v>0.35</v>
+        <v>0.490683229813665</v>
       </c>
     </row>
     <row r="4">
@@ -453,19 +453,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.619047619047619</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.625</v>
+        <v>0.703703703703704</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F4" t="n">
-        <v>0.590909090909091</v>
+        <v>0.538805970149254</v>
       </c>
     </row>
     <row r="5">
@@ -473,19 +473,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.846153846153846</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="C5" t="n">
+        <v>0.808510638297872</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.875</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.761904761904762</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
@@ -493,19 +493,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.833333333333333</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.833333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E6" t="n">
-        <v>0.823529411764706</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="F6" t="n">
-        <v>0.411764705882353</v>
+        <v>0.609160305343511</v>
       </c>
     </row>
     <row r="7">
@@ -513,19 +513,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.545454545454545</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.588235294117647</v>
+        <v>0.53921568627451</v>
       </c>
       <c r="D7" t="n">
-        <v>0.727272727272727</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="E7" t="n">
-        <v>0.521739130434783</v>
+        <v>0.36</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.53353428786737</v>
       </c>
     </row>
     <row r="8">
@@ -533,19 +533,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.464285714285714</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.531645569620253</v>
       </c>
       <c r="D8" t="n">
-        <v>0.529411764705882</v>
+        <v>0.784615384615385</v>
       </c>
       <c r="E8" t="n">
-        <v>0.482758620689655</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.538402457757296</v>
       </c>
     </row>
     <row r="9">
@@ -553,19 +553,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.492537313432836</v>
+        <v>0.471830985915493</v>
       </c>
       <c r="C9" t="n">
-        <v>0.580645161290323</v>
+        <v>0.56353591160221</v>
       </c>
       <c r="D9" t="n">
-        <v>0.379310344827586</v>
+        <v>0.508196721311475</v>
       </c>
       <c r="E9" t="n">
-        <v>0.514705882352941</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.619047619047619</v>
+        <v>0.523291925465838</v>
       </c>
     </row>
     <row r="10">
@@ -573,19 +573,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.626865671641791</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="C10" t="n">
-        <v>0.548387096774194</v>
+        <v>0.640883977900553</v>
       </c>
       <c r="D10" t="n">
-        <v>0.413793103448276</v>
+        <v>0.622950819672131</v>
       </c>
       <c r="E10" t="n">
-        <v>0.647058823529412</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="F10" t="n">
-        <v>0.476190476190476</v>
+        <v>0.585403726708075</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_positive.xlsx
@@ -413,19 +413,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.802816901408451</v>
+        <v>0.782258064516129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.718232044198895</v>
+        <v>0.717305151915456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.778688524590164</v>
+        <v>0.801104972375691</v>
       </c>
       <c r="E2" t="n">
-        <v>0.695652173913043</v>
+        <v>0.661490683229814</v>
       </c>
       <c r="F2" t="n">
-        <v>0.540890072270825</v>
+        <v>0.541808550889141</v>
       </c>
     </row>
     <row r="3">
@@ -433,19 +433,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.485714285714286</v>
+        <v>0.503597122302158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.527777777777778</v>
+        <v>0.563106796116505</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65625</v>
+        <v>0.573643410852713</v>
       </c>
       <c r="E3" t="n">
-        <v>0.461538461538462</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.490683229813665</v>
+        <v>0.491499227202473</v>
       </c>
     </row>
     <row r="4">
@@ -453,19 +453,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.783783783783784</v>
+        <v>0.855345911949686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.703703703703704</v>
+        <v>0.735135135135135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.821428571428571</v>
+        <v>0.824427480916031</v>
       </c>
       <c r="E4" t="n">
-        <v>0.857142857142857</v>
+        <v>0.734939759036145</v>
       </c>
       <c r="F4" t="n">
-        <v>0.538805970149254</v>
+        <v>0.537890044576523</v>
       </c>
     </row>
     <row r="5">
@@ -473,19 +473,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.823529411764706</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.808510638297872</v>
+        <v>0.752747252747253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.882352941176471</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.875</v>
+        <v>0.738853503184713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.55</v>
+        <v>0.550375939849624</v>
       </c>
     </row>
     <row r="6">
@@ -493,19 +493,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.861111111111111</v>
+        <v>0.884353741496599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.863636363636364</v>
+        <v>0.809782608695652</v>
       </c>
       <c r="D6" t="n">
-        <v>0.785714285714286</v>
+        <v>0.859259259259259</v>
       </c>
       <c r="E6" t="n">
-        <v>0.909090909090909</v>
+        <v>0.865030674846626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.609160305343511</v>
+        <v>0.609422492401216</v>
       </c>
     </row>
     <row r="7">
@@ -513,19 +513,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.694444444444444</v>
+        <v>0.44954128440367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.53921568627451</v>
+        <v>0.599502487562189</v>
       </c>
       <c r="D7" t="n">
-        <v>0.736842105263158</v>
+        <v>0.707865168539326</v>
       </c>
       <c r="E7" t="n">
-        <v>0.36</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.53353428786737</v>
+        <v>0.53448275862069</v>
       </c>
     </row>
     <row r="8">
@@ -533,19 +533,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.742857142857143</v>
+        <v>0.57679180887372</v>
       </c>
       <c r="C8" t="n">
-        <v>0.531645569620253</v>
+        <v>0.552112676056338</v>
       </c>
       <c r="D8" t="n">
-        <v>0.784615384615385</v>
+        <v>0.710144927536232</v>
       </c>
       <c r="E8" t="n">
-        <v>0.523809523809524</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.538402457757296</v>
+        <v>0.537051184110008</v>
       </c>
     </row>
     <row r="9">
@@ -553,19 +553,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.471830985915493</v>
+        <v>0.480645161290323</v>
       </c>
       <c r="C9" t="n">
-        <v>0.56353591160221</v>
+        <v>0.536327608982827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.508196721311475</v>
+        <v>0.49171270718232</v>
       </c>
       <c r="E9" t="n">
-        <v>0.565217391304348</v>
+        <v>0.512422360248447</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523291925465838</v>
+        <v>0.523148148148148</v>
       </c>
     </row>
     <row r="10">
@@ -573,19 +573,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.647887323943662</v>
+        <v>0.617741935483871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.640883977900553</v>
+        <v>0.598414795244386</v>
       </c>
       <c r="D10" t="n">
-        <v>0.622950819672131</v>
+        <v>0.644567219152855</v>
       </c>
       <c r="E10" t="n">
-        <v>0.608695652173913</v>
+        <v>0.566770186335404</v>
       </c>
       <c r="F10" t="n">
-        <v>0.585403726708075</v>
+        <v>0.585905349794239</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,31 +32,28 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;C+NR+GCS&lt;&lt; vs. C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: C+NR vs. &gt;&gt;GCS+NR&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: NR vs. &gt;&gt;NR+C+GCS&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;NR+GCS&lt;&lt; vs. NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;NR+C&lt;&lt; vs. NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left&lt;&lt; vs. Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left+GCS&lt;&lt; vs. Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A&lt;&lt; vs. B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A+GCS&lt;&lt; vs. B</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCS+NR preferred to C+NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+C+GCS preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+GCS preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+C preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random programs: with GCS preferred to without</t>
   </si>
 </sst>
 </file>
@@ -413,19 +410,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.782258064516129</v>
+        <v>0.781995380252627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.717305151915456</v>
+        <v>0.712010897427332</v>
       </c>
       <c r="D2" t="n">
-        <v>0.801104972375691</v>
+        <v>0.827767423293579</v>
       </c>
       <c r="E2" t="n">
-        <v>0.661490683229814</v>
+        <v>0.722976555380657</v>
       </c>
       <c r="F2" t="n">
-        <v>0.541808550889141</v>
+        <v>0.533050523673449</v>
       </c>
     </row>
     <row r="3">
@@ -433,19 +430,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.503597122302158</v>
+        <v>0.781888355211445</v>
       </c>
       <c r="C3" t="n">
-        <v>0.563106796116505</v>
+        <v>0.711660781652381</v>
       </c>
       <c r="D3" t="n">
-        <v>0.573643410852713</v>
+        <v>0.801845843811584</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.662615164948802</v>
       </c>
       <c r="F3" t="n">
-        <v>0.491499227202473</v>
+        <v>0.540334377126678</v>
       </c>
     </row>
     <row r="4">
@@ -453,19 +450,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.855345911949686</v>
+        <v>0.506460022581565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.735135135135135</v>
+        <v>0.557637736806466</v>
       </c>
       <c r="D4" t="n">
-        <v>0.824427480916031</v>
+        <v>0.558863995749703</v>
       </c>
       <c r="E4" t="n">
-        <v>0.734939759036145</v>
+        <v>0.487015877061265</v>
       </c>
       <c r="F4" t="n">
-        <v>0.537890044576523</v>
+        <v>0.466267232447944</v>
       </c>
     </row>
     <row r="5">
@@ -473,19 +470,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.771428571428571</v>
+        <v>0.857219385761349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.752747252747253</v>
+        <v>0.751394618919885</v>
       </c>
       <c r="D5" t="n">
-        <v>0.783783783783784</v>
+        <v>0.838683821949252</v>
       </c>
       <c r="E5" t="n">
-        <v>0.738853503184713</v>
+        <v>0.723608598723154</v>
       </c>
       <c r="F5" t="n">
-        <v>0.550375939849624</v>
+        <v>0.547146463744832</v>
       </c>
     </row>
     <row r="6">
@@ -493,19 +490,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.884353741496599</v>
+        <v>0.761156408027965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.809782608695652</v>
+        <v>0.762099934805461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.859259259259259</v>
+        <v>0.784971497489425</v>
       </c>
       <c r="E6" t="n">
-        <v>0.865030674846626</v>
+        <v>0.746088878052818</v>
       </c>
       <c r="F6" t="n">
-        <v>0.609422492401216</v>
+        <v>0.551530613317319</v>
       </c>
     </row>
     <row r="7">
@@ -513,19 +510,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.44954128440367</v>
+        <v>0.881762510881357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.599502487562189</v>
+        <v>0.823710192520629</v>
       </c>
       <c r="D7" t="n">
-        <v>0.707865168539326</v>
+        <v>0.869627482347471</v>
       </c>
       <c r="E7" t="n">
-        <v>0.480769230769231</v>
+        <v>0.845000327812302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.53448275862069</v>
+        <v>0.621563662115855</v>
       </c>
     </row>
     <row r="8">
@@ -533,19 +530,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.57679180887372</v>
+        <v>0.620661959757824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.552112676056338</v>
+        <v>0.589964373357525</v>
       </c>
       <c r="D8" t="n">
-        <v>0.710144927536232</v>
+        <v>0.650896609420891</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>0.559546608035282</v>
       </c>
       <c r="F8" t="n">
-        <v>0.537051184110008</v>
+        <v>0.583564934623285</v>
       </c>
     </row>
     <row r="9">
@@ -553,39 +550,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.480645161290323</v>
+        <v>0.447523134702293</v>
       </c>
       <c r="C9" t="n">
-        <v>0.536327608982827</v>
+        <v>0.539493316186416</v>
       </c>
       <c r="D9" t="n">
-        <v>0.49171270718232</v>
+        <v>0.54411820555855</v>
       </c>
       <c r="E9" t="n">
-        <v>0.512422360248447</v>
+        <v>0.485871433018411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523148148148148</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.617741935483871</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.598414795244386</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.644567219152855</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.566770186335404</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.585905349794239</v>
+        <v>0.533925920664392</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
@@ -404,165 +407,192 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.781995380252627</v>
+        <v>0.533050523673449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712010897427332</v>
+        <v>0.752698343735098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.827767423293579</v>
+        <v>0.805398319468679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.722976555380657</v>
+        <v>0.708750845625959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.813439832560037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.745700372884844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.781888355211445</v>
+        <v>0.540334377126678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.711660781652381</v>
+        <v>0.732801058256552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.801845843811584</v>
+        <v>0.788948273734533</v>
       </c>
       <c r="E3" t="n">
-        <v>0.662615164948802</v>
+        <v>0.709122563432032</v>
       </c>
       <c r="F3" t="n">
-        <v>0.540334377126678</v>
+        <v>0.798611869881155</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.697707624460728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.506460022581565</v>
+        <v>0.466267232447944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.557637736806466</v>
+        <v>0.528521467316923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.558863995749703</v>
+        <v>0.54298320618301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.487015877061265</v>
+        <v>0.55747359485376</v>
       </c>
       <c r="F4" t="n">
-        <v>0.466267232447944</v>
+        <v>0.521779060704512</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.506395266498014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.857219385761349</v>
+        <v>0.547146463744832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.751394618919885</v>
+        <v>0.78738474277188</v>
       </c>
       <c r="D5" t="n">
-        <v>0.838683821949252</v>
+        <v>0.865856512542897</v>
       </c>
       <c r="E5" t="n">
-        <v>0.723608598723154</v>
+        <v>0.753877610588178</v>
       </c>
       <c r="F5" t="n">
-        <v>0.547146463744832</v>
+        <v>0.79677790782055</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.769605840282518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.761156408027965</v>
+        <v>0.551530613317319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.762099934805461</v>
+        <v>0.762566643428049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.784971497489425</v>
+        <v>0.794500153667354</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746088878052818</v>
+        <v>0.746330102375747</v>
       </c>
       <c r="F6" t="n">
-        <v>0.551530613317319</v>
+        <v>0.768621148374205</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.773450102052741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.881762510881357</v>
+        <v>0.621563662115855</v>
       </c>
       <c r="C7" t="n">
-        <v>0.823710192520629</v>
+        <v>0.851093062431084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.869627482347471</v>
+        <v>0.891209997097121</v>
       </c>
       <c r="E7" t="n">
-        <v>0.845000327812302</v>
+        <v>0.836163608902924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.621563662115855</v>
+        <v>0.85553619504808</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.860329350730786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.620661959757824</v>
+        <v>0.583564934623285</v>
       </c>
       <c r="C8" t="n">
-        <v>0.589964373357525</v>
+        <v>0.60085514854368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.650896609420891</v>
+        <v>0.626458785077602</v>
       </c>
       <c r="E8" t="n">
-        <v>0.559546608035282</v>
+        <v>0.571808732582098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.583564934623285</v>
+        <v>0.641263799532265</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.58845359372917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.447523134702293</v>
+        <v>0.533925920664392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.539493316186416</v>
+        <v>0.506245447687487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.54411820555855</v>
+        <v>0.464648213495476</v>
       </c>
       <c r="E9" t="n">
-        <v>0.485871433018411</v>
+        <v>0.538620944501814</v>
       </c>
       <c r="F9" t="n">
-        <v>0.533925920664392</v>
+        <v>0.604991302855216</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.574542866003825</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_positive.xlsx
@@ -416,22 +416,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.541940293813814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.752698343735098</v>
+        <v>0.757124442969868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.805398319468679</v>
+        <v>0.80287801319803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.708750845625959</v>
+        <v>0.71266432814077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813439832560037</v>
+        <v>0.814181202537546</v>
       </c>
       <c r="G2" t="n">
-        <v>0.745700372884844</v>
+        <v>0.741093867939918</v>
       </c>
     </row>
     <row r="3">
@@ -439,22 +439,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.540334377126678</v>
+        <v>0.54769087768906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.732801058256552</v>
+        <v>0.73638352999918</v>
       </c>
       <c r="D3" t="n">
-        <v>0.788948273734533</v>
+        <v>0.786530605346286</v>
       </c>
       <c r="E3" t="n">
-        <v>0.709122563432032</v>
+        <v>0.714087756610439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.798611869881155</v>
+        <v>0.795391539043858</v>
       </c>
       <c r="G3" t="n">
-        <v>0.697707624460728</v>
+        <v>0.683372336610581</v>
       </c>
     </row>
     <row r="4">
@@ -462,22 +462,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.466267232447944</v>
+        <v>0.472497577007242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.528521467316923</v>
+        <v>0.522355957177807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.54298320618301</v>
+        <v>0.529279540224563</v>
       </c>
       <c r="E4" t="n">
-        <v>0.55747359485376</v>
+        <v>0.532729470830718</v>
       </c>
       <c r="F4" t="n">
-        <v>0.521779060704512</v>
+        <v>0.521929993436618</v>
       </c>
       <c r="G4" t="n">
-        <v>0.506395266498014</v>
+        <v>0.520300627789784</v>
       </c>
     </row>
     <row r="5">
@@ -485,22 +485,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.547146463744832</v>
+        <v>0.549841280424093</v>
       </c>
       <c r="C5" t="n">
-        <v>0.78738474277188</v>
+        <v>0.770946871428178</v>
       </c>
       <c r="D5" t="n">
-        <v>0.865856512542897</v>
+        <v>0.86140446509692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.753877610588178</v>
+        <v>0.727346497000445</v>
       </c>
       <c r="F5" t="n">
-        <v>0.79677790782055</v>
+        <v>0.798827258417286</v>
       </c>
       <c r="G5" t="n">
-        <v>0.769605840282518</v>
+        <v>0.721931004385653</v>
       </c>
     </row>
     <row r="6">
@@ -508,22 +508,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.551530613317319</v>
+        <v>0.546858344549753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.762566643428049</v>
+        <v>0.766658030556257</v>
       </c>
       <c r="D6" t="n">
-        <v>0.794500153667354</v>
+        <v>0.791440849972673</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746330102375747</v>
+        <v>0.741908574968638</v>
       </c>
       <c r="F6" t="n">
-        <v>0.768621148374205</v>
+        <v>0.768296319190764</v>
       </c>
       <c r="G6" t="n">
-        <v>0.773450102052741</v>
+        <v>0.772088875142527</v>
       </c>
     </row>
     <row r="7">
@@ -531,22 +531,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.621563662115855</v>
+        <v>0.616284035678923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.851093062431084</v>
+        <v>0.841559600244504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.891209997097121</v>
+        <v>0.877716873572847</v>
       </c>
       <c r="E7" t="n">
-        <v>0.836163608902924</v>
+        <v>0.829274464267539</v>
       </c>
       <c r="F7" t="n">
-        <v>0.85553619504808</v>
+        <v>0.857539237193396</v>
       </c>
       <c r="G7" t="n">
-        <v>0.860329350730786</v>
+        <v>0.823801494655161</v>
       </c>
     </row>
     <row r="8">
@@ -554,22 +554,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.583564934623285</v>
+        <v>0.576205789168793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.60085514854368</v>
+        <v>0.601954513853657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.626458785077602</v>
+        <v>0.609815593954741</v>
       </c>
       <c r="E8" t="n">
-        <v>0.571808732582098</v>
+        <v>0.593254124007975</v>
       </c>
       <c r="F8" t="n">
-        <v>0.641263799532265</v>
+        <v>0.638089911624065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.58845359372917</v>
+        <v>0.576936945671302</v>
       </c>
     </row>
     <row r="9">
@@ -577,22 +577,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.533925920664392</v>
+        <v>0.538590287804471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.506245447687487</v>
+        <v>0.545729083777916</v>
       </c>
       <c r="D9" t="n">
-        <v>0.464648213495476</v>
+        <v>0.503789509217375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.538620944501814</v>
+        <v>0.549226185000828</v>
       </c>
       <c r="F9" t="n">
-        <v>0.604991302855216</v>
+        <v>0.6152744633808</v>
       </c>
       <c r="G9" t="n">
-        <v>0.574542866003825</v>
+        <v>0.616606642737335</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_positive.xlsx
@@ -416,22 +416,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.541940293813814</v>
+        <v>0.527972736493319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757124442969868</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.80287801319803</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.71266432814077</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.814181202537546</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.741093867939918</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -439,22 +439,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.54769087768906</v>
+        <v>0.547746186051635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.73638352999918</v>
+        <v>0.735351301009053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.786530605346286</v>
+        <v>0.786517033810842</v>
       </c>
       <c r="E3" t="n">
-        <v>0.714087756610439</v>
+        <v>0.714098080786382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.795391539043858</v>
+        <v>0.782294412865101</v>
       </c>
       <c r="G3" t="n">
-        <v>0.683372336610581</v>
+        <v>0.683359692303094</v>
       </c>
     </row>
     <row r="4">
@@ -462,22 +462,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.472497577007242</v>
+        <v>0.472512715667483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.522355957177807</v>
+        <v>0.515377450158311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.529279540224563</v>
+        <v>0.529174790889353</v>
       </c>
       <c r="E4" t="n">
-        <v>0.532729470830718</v>
+        <v>0.532760503496087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.521929993436618</v>
+        <v>0.490919481564323</v>
       </c>
       <c r="G4" t="n">
-        <v>0.520300627789784</v>
+        <v>0.520312075113975</v>
       </c>
     </row>
     <row r="5">
@@ -485,22 +485,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.549841280424093</v>
+        <v>0.549945299403874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.770946871428178</v>
+        <v>0.772716277532722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.86140446509692</v>
+        <v>0.861384362992593</v>
       </c>
       <c r="E5" t="n">
-        <v>0.727346497000445</v>
+        <v>0.727393767309419</v>
       </c>
       <c r="F5" t="n">
-        <v>0.798827258417286</v>
+        <v>0.832743165850594</v>
       </c>
       <c r="G5" t="n">
-        <v>0.721931004385653</v>
+        <v>0.721894153943557</v>
       </c>
     </row>
     <row r="6">
@@ -508,22 +508,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.546858344549753</v>
+        <v>0.546998519360197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.766658030556257</v>
+        <v>0.770223388683434</v>
       </c>
       <c r="D6" t="n">
-        <v>0.791440849972673</v>
+        <v>0.791348238675161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.741908574968638</v>
+        <v>0.7419152210687</v>
       </c>
       <c r="F6" t="n">
-        <v>0.768296319190764</v>
+        <v>0.792397387102864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.772088875142527</v>
+        <v>0.772122341113144</v>
       </c>
     </row>
     <row r="7">
@@ -531,22 +531,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.616284035678923</v>
+        <v>0.616278518818649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.841559600244504</v>
+        <v>0.840441328944408</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877716873572847</v>
+        <v>0.877676923710508</v>
       </c>
       <c r="E7" t="n">
-        <v>0.829274464267539</v>
+        <v>0.829293481343928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.857539237193396</v>
+        <v>0.8401259487174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.823801494655161</v>
+        <v>0.823739735276932</v>
       </c>
     </row>
     <row r="8">
@@ -554,22 +554,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.576205789168793</v>
+        <v>0.576260769994676</v>
       </c>
       <c r="C8" t="n">
-        <v>0.601954513853657</v>
+        <v>0.602521116263654</v>
       </c>
       <c r="D8" t="n">
-        <v>0.609815593954741</v>
+        <v>0.609808785858749</v>
       </c>
       <c r="E8" t="n">
-        <v>0.593254124007975</v>
+        <v>0.593269893728387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.638089911624065</v>
+        <v>0.65080574369961</v>
       </c>
       <c r="G8" t="n">
-        <v>0.576936945671302</v>
+        <v>0.576958671759513</v>
       </c>
     </row>
     <row r="9">
@@ -577,22 +577,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.538590287804471</v>
+        <v>0.538443468264634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.545729083777916</v>
+        <v>0.541187502351268</v>
       </c>
       <c r="D9" t="n">
-        <v>0.503789509217375</v>
+        <v>0.503715145711722</v>
       </c>
       <c r="E9" t="n">
-        <v>0.549226185000828</v>
+        <v>0.54919037812932</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6152744633808</v>
+        <v>0.565602121213899</v>
       </c>
       <c r="G9" t="n">
-        <v>0.616606642737335</v>
+        <v>0.616625727793589</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_positive.xlsx
@@ -416,7 +416,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.527972736493319</v>
+        <v>0.542040008566919</v>
       </c>
       <c r="C2" t="n">
         <v>0.757320866764204</v>
@@ -577,22 +577,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.538443468264634</v>
+        <v>0.469348959719292</v>
       </c>
       <c r="C9" t="n">
-        <v>0.541187502351268</v>
+        <v>0.526336893165654</v>
       </c>
       <c r="D9" t="n">
-        <v>0.503715145711722</v>
+        <v>0.575459154996921</v>
       </c>
       <c r="E9" t="n">
-        <v>0.54919037812932</v>
+        <v>0.508831293471374</v>
       </c>
       <c r="F9" t="n">
-        <v>0.565602121213899</v>
+        <v>0.496827458614761</v>
       </c>
       <c r="G9" t="n">
-        <v>0.616625727793589</v>
+        <v>0.518554917937033</v>
       </c>
     </row>
   </sheetData>
